--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -382,7 +382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D1" activeCellId="0" pane="topLeft" sqref="D1:E7"/>
@@ -409,6 +409,11 @@
           <t>Faculty</t>
         </is>
       </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="3">
       <c r="A2" s="2" t="inlineStr">
@@ -426,6 +431,11 @@
           <t>Sanjeev</t>
         </is>
       </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="3">
       <c r="A3" s="2" t="inlineStr">
@@ -443,6 +453,11 @@
           <t>Shikhar</t>
         </is>
       </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="3">
       <c r="A4" s="2" t="inlineStr">
@@ -460,6 +475,11 @@
           <t>Suresh</t>
         </is>
       </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="3">
       <c r="A5" s="2" t="inlineStr">
@@ -477,6 +497,11 @@
           <t>Deepak</t>
         </is>
       </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="3">
       <c r="A6" s="2" t="inlineStr">
@@ -494,6 +519,11 @@
           <t>Mahesh</t>
         </is>
       </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="3">
       <c r="A7" s="2" t="inlineStr">
@@ -509,6 +539,11 @@
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Vinay</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>No Slots</t>
         </is>
       </c>
     </row>
